--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_金子くん.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_金子くん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36A15C-E055-4A63-B310-AF44C4B47C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32C8DDE-9F22-4F41-9B82-B73816317CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -216,53 +209,30 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務委託費</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>イタクヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>物販コンサル費用</t>
-    <rPh sb="0" eb="2">
-      <t>ブッパン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>銀行名：三菱UFJ</t>
+    <t>銀行名：paypay銀行</t>
     <rPh sb="0" eb="3">
       <t>ギンコウメイ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>ミツビシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支店名：堺駅前支店（576）</t>
+    <rPh sb="10" eb="12">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支店名：はやぶさ支店</t>
     <rPh sb="0" eb="2">
       <t>シテン</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>サカイエキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="8" eb="10">
       <t>シテン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>口座情報：普通預金　0485088</t>
+    <t>口座情報：普通預金　7815304</t>
     <rPh sb="0" eb="2">
       <t>コウザ</t>
     </rPh>
@@ -271,6 +241,27 @@
     </rPh>
     <rPh sb="5" eb="9">
       <t>フツウヨキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>店番：003</t>
+    <rPh sb="0" eb="2">
+      <t>ミセバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注費</t>
+    <rPh sb="0" eb="3">
+      <t>ガイチュウヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕入れ</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -406,76 +397,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -837,83 +820,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44744</v>
-      </c>
-      <c r="H3" s="21"/>
+      <c r="G3" s="6">
+        <v>44719</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="2" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" thickTop="1">
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -921,293 +894,307 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" thickBot="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24">
-        <f ca="1">EDATE(G3,1)</f>
-        <v>44775</v>
-      </c>
-      <c r="H12" s="25"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10">
+        <f>EDATE(G3,1)</f>
+        <v>44749</v>
+      </c>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="19.5" thickTop="1">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10">
+      <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12">
+        <v>136364</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13">
+        <v>2</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12">
+        <v>772727</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13">
+        <v>3</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13">
+        <v>5</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13">
+        <v>6</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13">
+        <v>7</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="12">
+        <f>IF(F18="","",SUM(F18:H31))</f>
+        <v>909091</v>
+      </c>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="F34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="12">
+        <v>90909</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="15">
-        <v>8182</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10">
-        <v>2</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="10">
-        <v>3</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="10">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10">
-        <v>5</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="10">
-        <v>6</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="10">
-        <v>7</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="F32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="15">
-        <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>8182</v>
-      </c>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="5" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="F34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="15">
-        <v>818</v>
-      </c>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="F36" s="13" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="F36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="16">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>9000</v>
-      </c>
-      <c r="H36" s="14"/>
+        <v>1000000</v>
+      </c>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1224,32 +1211,6 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
